--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Nov.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH TTO TAT 2021 Nov.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\3. Operational\3c. TTO Statistics\TTO TAT DATA\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD3FAF1-972B-E64C-9F3D-954F580BC26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9390"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$242</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -236,16 +247,10 @@
     <t>["Wait for interpreter/NOK","Passed to SN"]</t>
   </si>
   <si>
-    <t>ICU11</t>
-  </si>
-  <si>
     <t>["9W remaining meds","Passed to SN"]</t>
   </si>
   <si>
     <t>["Passed to SN","9W remaining meds"]</t>
-  </si>
-  <si>
-    <t>ICU 8</t>
   </si>
   <si>
     <t>EK THENG</t>
@@ -254,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,22 +633,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z390"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I42" sqref="A42:XFD196"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="16"/>
-    <col min="18" max="18" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -717,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>44530</v>
       </c>
@@ -767,7 +772,7 @@
         <v>516.25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>44530</v>
       </c>
@@ -829,7 +834,7 @@
         <v>91.3888888888889</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>44530</v>
       </c>
@@ -891,7 +896,7 @@
         <v>154.58333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>44530</v>
       </c>
@@ -950,7 +955,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>44530</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>75.833333333333343</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>44530</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>44530</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>44530</v>
       </c>
@@ -1198,7 +1203,7 @@
         <v>90.416666666666671</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>44530</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>44530</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>666.94444444444446</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>44530</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>44530</v>
       </c>
@@ -1437,7 +1442,7 @@
         <v>72.916666666666671</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>44530</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>44530</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>44529</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>44529</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>44529</v>
       </c>
@@ -1753,7 +1758,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>44529</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>44529</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>44529</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>685.41666666666663</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>44529</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>44529</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>44529</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>44528</v>
       </c>
@@ -2157,7 +2162,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>44528</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>44528</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>44527</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>44527</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>44527</v>
       </c>
@@ -2467,7 +2472,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>44527</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>44527</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>67.083333333333329</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>44526</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>44526</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>44526</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>44526</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>44525</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>44525</v>
       </c>
@@ -2966,7 +2971,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>44525</v>
       </c>
@@ -3028,7 +3033,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>44525</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>44525</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>554.16666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>44525</v>
       </c>
@@ -3202,7 +3207,7 @@
         <v>48.611111111111114</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>44525</v>
       </c>
@@ -3264,7 +3269,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44525</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>44525</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>44525</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>44524</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>44524</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>44524</v>
       </c>
@@ -3630,7 +3635,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>44524</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>44524</v>
       </c>
@@ -3751,7 +3756,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>44524</v>
       </c>
@@ -3813,7 +3818,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>44524</v>
       </c>
@@ -3875,7 +3880,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>44524</v>
       </c>
@@ -3937,7 +3942,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>44524</v>
       </c>
@@ -3999,7 +4004,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>44524</v>
       </c>
@@ -4061,7 +4066,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>44524</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>44524</v>
       </c>
@@ -4185,7 +4190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>44523</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>44523</v>
       </c>
@@ -4300,7 +4305,7 @@
         <v>565.83333333333326</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>44523</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>44523</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>44523</v>
       </c>
@@ -4486,7 +4491,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>44523</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>44523</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>44523</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>44522</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>61.250000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>44522</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>117.63888888888889</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>44522</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>44522</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>68.055555555555557</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>44522</v>
       </c>
@@ -4985,7 +4990,7 @@
         <v>71.944444444444457</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>44522</v>
       </c>
@@ -5029,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>44521</v>
       </c>
@@ -5094,7 +5099,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>44521</v>
       </c>
@@ -5156,7 +5161,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>44521</v>
       </c>
@@ -5221,7 +5226,7 @@
         <v>3.8888888888888888</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>44521</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>44521</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>58.333333333333329</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>44521</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>44521</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>68.055555555555557</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>44521</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>44521</v>
       </c>
@@ -5596,7 +5601,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>44521</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>44520</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>44520</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>56.388888888888893</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>44520</v>
       </c>
@@ -5841,7 +5846,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>44520</v>
       </c>
@@ -5903,7 +5908,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>44519</v>
       </c>
@@ -5965,7 +5970,7 @@
         <v>110.83333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>44519</v>
       </c>
@@ -6024,7 +6029,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>44519</v>
       </c>
@@ -6089,7 +6094,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>44519</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>44519</v>
       </c>
@@ -6216,7 +6221,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>44519</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>35.972222222222229</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>44519</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>44519</v>
       </c>
@@ -6402,7 +6407,7 @@
         <v>49.583333333333329</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>44519</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>102.08333333333334</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
         <v>44519</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>563.8888888888888</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>44519</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>44519</v>
       </c>
@@ -6629,7 +6634,7 @@
         <v>613.47222222222229</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>44519</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>44519</v>
       </c>
@@ -6753,7 +6758,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>44519</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>44519</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>80.694444444444443</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>44519</v>
       </c>
@@ -6921,7 +6926,7 @@
         <v>770.97222222222229</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>44519</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>44519</v>
       </c>
@@ -7045,7 +7050,7 @@
         <v>69.027777777777771</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>44518</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>44518</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>84.583333333333329</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>44518</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>539.58333333333337</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>44518</v>
       </c>
@@ -7287,7 +7292,7 @@
         <v>82.6388888888889</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>44518</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>570.69444444444446</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>44518</v>
       </c>
@@ -7396,7 +7401,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>44518</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>981.94444444444434</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>44517</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>44517</v>
       </c>
@@ -7585,7 +7590,7 @@
         <v>70.972222222222229</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>44517</v>
       </c>
@@ -7647,7 +7652,7 @@
         <v>96.249999999999986</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>44517</v>
       </c>
@@ -7709,7 +7714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>44517</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>44517</v>
       </c>
@@ -7815,7 +7820,7 @@
         <v>101.11111111111111</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>44517</v>
       </c>
@@ -7877,7 +7882,7 @@
         <v>66.111111111111114</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>44517</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>44517</v>
       </c>
@@ -8001,7 +8006,7 @@
         <v>651.3888888888888</v>
       </c>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>44517</v>
       </c>
@@ -8054,7 +8059,7 @@
         <v>545.41666666666663</v>
       </c>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>44517</v>
       </c>
@@ -8116,7 +8121,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>44517</v>
       </c>
@@ -8181,7 +8186,7 @@
         <v>103.05555555555556</v>
       </c>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>44516</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>496.8055555555556</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>44516</v>
       </c>
@@ -8287,7 +8292,7 @@
         <v>498.75</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>44516</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>44516</v>
       </c>
@@ -8399,7 +8404,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>44516</v>
       </c>
@@ -8452,7 +8457,7 @@
         <v>552.22222222222217</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>44516</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>44516</v>
       </c>
@@ -8579,7 +8584,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>44515</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>490.97222222222217</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>44515</v>
       </c>
@@ -8691,7 +8696,7 @@
         <v>40.833333333333329</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>44515</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>44515</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>44515</v>
       </c>
@@ -8874,7 +8879,7 @@
         <v>46.666666666666664</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>44515</v>
       </c>
@@ -8936,7 +8941,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>44515</v>
       </c>
@@ -8998,7 +9003,7 @@
         <v>66.111111111111114</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>44515</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>77.777777777777771</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="19">
         <v>44515</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>90.416666666666671</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>44515</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>44515</v>
       </c>
@@ -9249,7 +9254,7 @@
         <v>31.111111111111111</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>44515</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>44514</v>
       </c>
@@ -9370,7 +9375,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="19">
         <v>44514</v>
       </c>
@@ -9429,7 +9434,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="19">
         <v>44513</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>4.8611111111111107</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>44513</v>
       </c>
@@ -9553,7 +9558,7 @@
         <v>131.25</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>44513</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>44513</v>
       </c>
@@ -9680,7 +9685,7 @@
         <v>830.27777777777783</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>44513</v>
       </c>
@@ -9745,7 +9750,7 @@
         <v>53.472222222222214</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>44513</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>44513</v>
       </c>
@@ -9869,7 +9874,7 @@
         <v>28.194444444444446</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>44512</v>
       </c>
@@ -9931,7 +9936,7 @@
         <v>51.527777777777779</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>44512</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v>74.861111111111114</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>44512</v>
       </c>
@@ -10055,7 +10060,7 @@
         <v>27.222222222222221</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>44512</v>
       </c>
@@ -10114,7 +10119,7 @@
         <v>38.888888888888886</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>44511</v>
       </c>
@@ -10176,7 +10181,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>44511</v>
       </c>
@@ -10241,7 +10246,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>44511</v>
       </c>
@@ -10306,7 +10311,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>44511</v>
       </c>
@@ -10371,7 +10376,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>44511</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>44511</v>
       </c>
@@ -10495,7 +10500,7 @@
         <v>25.277777777777779</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>44511</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>447.22222222222229</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>44511</v>
       </c>
@@ -10619,7 +10624,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>44511</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>44511</v>
       </c>
@@ -10743,7 +10748,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>44511</v>
       </c>
@@ -10805,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>44511</v>
       </c>
@@ -10867,7 +10872,7 @@
         <v>57.361111111111114</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>44511</v>
       </c>
@@ -10929,7 +10934,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>44511</v>
       </c>
@@ -10988,7 +10993,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>44510</v>
       </c>
@@ -11050,7 +11055,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>44510</v>
       </c>
@@ -11112,7 +11117,7 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>44510</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>44510</v>
       </c>
@@ -11236,7 +11241,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>44510</v>
       </c>
@@ -11298,7 +11303,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>44510</v>
       </c>
@@ -11360,7 +11365,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>44510</v>
       </c>
@@ -11422,7 +11427,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>44510</v>
       </c>
@@ -11484,7 +11489,7 @@
         <v>36.944444444444443</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>44510</v>
       </c>
@@ -11546,7 +11551,7 @@
         <v>47.638888888888886</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>44510</v>
       </c>
@@ -11608,7 +11613,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>44510</v>
       </c>
@@ -11670,7 +11675,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>44510</v>
       </c>
@@ -11735,7 +11740,7 @@
         <v>55.416666666666664</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>44510</v>
       </c>
@@ -11788,7 +11793,7 @@
         <v>961.52777777777783</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>44509</v>
       </c>
@@ -11853,7 +11858,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>44509</v>
       </c>
@@ -11912,7 +11917,7 @@
         <v>110.83333333333333</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>44509</v>
       </c>
@@ -11959,7 +11964,7 @@
         <v>528.88888888888891</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="19">
         <v>44509</v>
       </c>
@@ -12024,7 +12029,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>44509</v>
       </c>
@@ -12086,7 +12091,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>44509</v>
       </c>
@@ -12151,7 +12156,7 @@
         <v>12.638888888888889</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>44509</v>
       </c>
@@ -12213,7 +12218,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>44509</v>
       </c>
@@ -12275,7 +12280,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>44509</v>
       </c>
@@ -12340,7 +12345,7 @@
         <v>16.527777777777779</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>44508</v>
       </c>
@@ -12405,7 +12410,7 @@
         <v>85.555555555555557</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>44508</v>
       </c>
@@ -12470,7 +12475,7 @@
         <v>65.138888888888886</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>44508</v>
       </c>
@@ -12532,7 +12537,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>44508</v>
       </c>
@@ -12597,7 +12602,7 @@
         <v>63.194444444444443</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>44508</v>
       </c>
@@ -12659,7 +12664,7 @@
         <v>13.611111111111111</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>44508</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>14.583333333333332</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>44508</v>
       </c>
@@ -12774,7 +12779,7 @@
         <v>959.58333333333337</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>44507</v>
       </c>
@@ -12836,7 +12841,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>44507</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>44507</v>
       </c>
@@ -12960,15 +12965,15 @@
         <v>3.8888888888888888</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>44507</v>
       </c>
       <c r="B203">
         <v>1021080731</v>
       </c>
-      <c r="C203" t="s">
-        <v>69</v>
+      <c r="C203">
+        <v>11</v>
       </c>
       <c r="D203" t="s">
         <v>26</v>
@@ -13022,7 +13027,7 @@
         <v>7.7777777777777777</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>44507</v>
       </c>
@@ -13084,7 +13089,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>44507</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>39.861111111111107</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>44506</v>
       </c>
@@ -13208,7 +13213,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>44506</v>
       </c>
@@ -13270,7 +13275,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>44506</v>
       </c>
@@ -13335,7 +13340,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>44505</v>
       </c>
@@ -13370,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="L209" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N209" s="16">
         <v>5.2777777777777778E-2</v>
@@ -13400,7 +13405,7 @@
         <v>73.888888888888886</v>
       </c>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>44505</v>
       </c>
@@ -13462,7 +13467,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>44505</v>
       </c>
@@ -13524,7 +13529,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>44505</v>
       </c>
@@ -13559,7 +13564,7 @@
         <v>28</v>
       </c>
       <c r="L212" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N212" s="16">
         <v>1.1111111111111112E-2</v>
@@ -13589,7 +13594,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>44505</v>
       </c>
@@ -13651,7 +13656,7 @@
         <v>15.555555555555555</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>44505</v>
       </c>
@@ -13713,7 +13718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>44505</v>
       </c>
@@ -13775,7 +13780,7 @@
         <v>20.416666666666664</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>44503</v>
       </c>
@@ -13840,7 +13845,7 @@
         <v>33.055555555555557</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>44503</v>
       </c>
@@ -13893,7 +13898,7 @@
         <v>555.13888888888891</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>44503</v>
       </c>
@@ -13958,7 +13963,7 @@
         <v>22.361111111111114</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>44503</v>
       </c>
@@ -14005,7 +14010,7 @@
         <v>513.33333333333337</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>44503</v>
       </c>
@@ -14067,7 +14072,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>44503</v>
       </c>
@@ -14120,7 +14125,7 @@
         <v>527.91666666666674</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>44503</v>
       </c>
@@ -14182,7 +14187,7 @@
         <v>44.722222222222229</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>44503</v>
       </c>
@@ -14241,7 +14246,7 @@
         <v>30.138888888888893</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>44503</v>
       </c>
@@ -14303,7 +14308,7 @@
         <v>54.444444444444443</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>44503</v>
       </c>
@@ -14365,7 +14370,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>44503</v>
       </c>
@@ -14418,7 +14423,7 @@
         <v>619.30555555555566</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="19">
         <v>44503</v>
       </c>
@@ -14471,7 +14476,7 @@
         <v>619.30555555555566</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>44503</v>
       </c>
@@ -14527,7 +14532,7 @@
         <v>66.111111111111114</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>44503</v>
       </c>
@@ -14583,7 +14588,7 @@
         <v>37.916666666666671</v>
       </c>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>44503</v>
       </c>
@@ -14645,7 +14650,7 @@
         <v>24.305555555555557</v>
       </c>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>44502</v>
       </c>
@@ -14704,7 +14709,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>44502</v>
       </c>
@@ -14760,7 +14765,7 @@
         <v>34.027777777777779</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>44502</v>
       </c>
@@ -14807,7 +14812,7 @@
         <v>553.19444444444446</v>
       </c>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>44502</v>
       </c>
@@ -14863,7 +14868,7 @@
         <v>142.91666666666669</v>
       </c>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>44502</v>
       </c>
@@ -14919,7 +14924,7 @@
         <v>21.388888888888889</v>
       </c>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>44502</v>
       </c>
@@ -14975,7 +14980,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>44502</v>
       </c>
@@ -15034,7 +15039,7 @@
         <v>18.472222222222221</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>44502</v>
       </c>
@@ -15096,7 +15101,7 @@
         <v>42.777777777777779</v>
       </c>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>44502</v>
       </c>
@@ -15158,15 +15163,15 @@
         <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="19">
         <v>44502</v>
       </c>
       <c r="B240">
         <v>1021076889</v>
       </c>
-      <c r="C240" t="s">
-        <v>72</v>
+      <c r="C240">
+        <v>8</v>
       </c>
       <c r="D240" t="s">
         <v>33</v>
@@ -15181,7 +15186,7 @@
         <v>44502.388888888891</v>
       </c>
       <c r="H240" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I240" s="20">
         <v>44502.395833333336</v>
@@ -15223,7 +15228,7 @@
         <v>19.444444444444443</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>44501</v>
       </c>
@@ -15285,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>44501</v>
       </c>
@@ -15347,7 +15352,7 @@
         <v>41.805555555555557</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="19"/>
       <c r="F243" s="20"/>
       <c r="G243" s="20"/>
@@ -15358,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="19"/>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -15371,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="19"/>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -15384,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="19"/>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -15397,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="19"/>
       <c r="F247" s="20"/>
       <c r="G247" s="20"/>
@@ -15410,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="19"/>
       <c r="F248" s="20"/>
       <c r="G248" s="20"/>
@@ -15423,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="19"/>
       <c r="F249" s="20"/>
       <c r="G249" s="20"/>
@@ -15435,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="19"/>
       <c r="F250" s="20"/>
       <c r="G250" s="20"/>
@@ -15448,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="19"/>
       <c r="F251" s="20"/>
       <c r="G251" s="20"/>
@@ -15461,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="19"/>
       <c r="F252" s="20"/>
       <c r="G252" s="20"/>
@@ -15474,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="19"/>
       <c r="F253" s="20"/>
       <c r="G253" s="20"/>
@@ -15487,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="19"/>
       <c r="F254" s="20"/>
       <c r="G254" s="20"/>
@@ -15499,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="19"/>
       <c r="F255" s="20"/>
       <c r="G255" s="20"/>
@@ -15512,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="19"/>
       <c r="F256" s="20"/>
       <c r="G256" s="20"/>
@@ -15524,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="19"/>
       <c r="F257" s="20"/>
       <c r="G257" s="20"/>
@@ -15537,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="19"/>
       <c r="F258" s="20"/>
       <c r="G258" s="20"/>
@@ -15550,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="19"/>
       <c r="F259" s="20"/>
       <c r="G259" s="20"/>
@@ -15563,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="19"/>
       <c r="F260" s="20"/>
       <c r="G260" s="20"/>
@@ -15574,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="19"/>
       <c r="F261" s="20"/>
       <c r="G261" s="20"/>
@@ -15587,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="19"/>
       <c r="F262" s="20"/>
       <c r="G262" s="20"/>
@@ -15600,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="19"/>
       <c r="F263" s="20"/>
       <c r="G263" s="20"/>
@@ -15613,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="19"/>
       <c r="F264" s="20"/>
       <c r="G264" s="20"/>
@@ -15624,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="19"/>
       <c r="F265" s="20"/>
       <c r="G265" s="20"/>
@@ -15637,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="19"/>
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
@@ -15648,7 +15653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="19"/>
       <c r="F267" s="20"/>
       <c r="I267" s="20"/>
@@ -15660,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="19"/>
       <c r="F268" s="20"/>
       <c r="G268" s="20"/>
@@ -15672,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="19"/>
       <c r="F269" s="20"/>
       <c r="G269" s="20"/>
@@ -15685,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="19"/>
       <c r="F270" s="20"/>
       <c r="X270" s="3"/>
@@ -15695,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="19"/>
       <c r="F271" s="20"/>
       <c r="G271" s="20"/>
@@ -15706,7 +15711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="19"/>
       <c r="F272" s="20"/>
       <c r="G272" s="20"/>
@@ -15719,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="19"/>
       <c r="F273" s="20"/>
       <c r="G273" s="20"/>
@@ -15732,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="19"/>
       <c r="F274" s="20"/>
       <c r="G274" s="20"/>
@@ -15743,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="19"/>
       <c r="F275" s="20"/>
       <c r="X275" s="10"/>
@@ -15753,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="19"/>
       <c r="F276" s="20"/>
       <c r="G276" s="20"/>
@@ -15766,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="19"/>
       <c r="F277" s="20"/>
       <c r="G277" s="20"/>
@@ -15778,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="19"/>
       <c r="F278" s="20"/>
       <c r="G278" s="20"/>
@@ -15789,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="19"/>
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
@@ -15801,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="19"/>
       <c r="F280" s="20"/>
       <c r="G280" s="20"/>
@@ -15813,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="19"/>
       <c r="F281" s="20"/>
       <c r="G281" s="20"/>
@@ -15826,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="19"/>
       <c r="F282" s="20"/>
       <c r="G282" s="20"/>
@@ -15839,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="19"/>
       <c r="F283" s="20"/>
       <c r="G283" s="20"/>
@@ -15852,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="19"/>
       <c r="F284" s="20"/>
       <c r="G284" s="20"/>
@@ -15865,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="19"/>
       <c r="F285" s="20"/>
       <c r="G285" s="20"/>
@@ -15878,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="19"/>
       <c r="F286" s="20"/>
       <c r="G286" s="20"/>
@@ -15891,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="19"/>
       <c r="F287" s="20"/>
       <c r="G287" s="20"/>
@@ -15904,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="19"/>
       <c r="F288" s="20"/>
       <c r="G288" s="20"/>
@@ -15917,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="19"/>
       <c r="F289" s="20"/>
       <c r="G289" s="20"/>
@@ -15930,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="19"/>
       <c r="F290" s="20"/>
       <c r="G290" s="20"/>
@@ -15941,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="19"/>
       <c r="F291" s="20"/>
       <c r="G291" s="20"/>
@@ -15954,7 +15959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="19"/>
       <c r="F292" s="20"/>
       <c r="G292" s="20"/>
@@ -15967,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="19"/>
       <c r="F293" s="20"/>
       <c r="G293" s="20"/>
@@ -15980,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="19"/>
       <c r="F294" s="20"/>
       <c r="G294" s="20"/>
@@ -15993,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="19"/>
       <c r="F295" s="20"/>
       <c r="G295" s="20"/>
@@ -16006,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="19"/>
       <c r="F296" s="20"/>
       <c r="G296" s="20"/>
@@ -16019,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="19"/>
       <c r="F297" s="20"/>
       <c r="G297" s="20"/>
@@ -16032,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="19"/>
       <c r="F298" s="20"/>
       <c r="G298" s="20"/>
@@ -16045,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="19"/>
       <c r="F299" s="20"/>
       <c r="G299" s="20"/>
@@ -16057,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="19"/>
       <c r="F300" s="20"/>
       <c r="G300" s="20"/>
@@ -16069,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="19"/>
       <c r="F301" s="20"/>
       <c r="G301" s="20"/>
@@ -16082,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="19"/>
       <c r="F302" s="20"/>
       <c r="G302" s="20"/>
@@ -16095,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="19"/>
       <c r="F303" s="20"/>
       <c r="G303" s="20"/>
@@ -16108,7 +16113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="19"/>
       <c r="F304" s="20"/>
       <c r="G304" s="20"/>
@@ -16121,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="19"/>
       <c r="F305" s="20"/>
       <c r="G305" s="20"/>
@@ -16134,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="19"/>
       <c r="F306" s="20"/>
       <c r="G306" s="20"/>
@@ -16147,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="19"/>
       <c r="F307" s="20"/>
       <c r="G307" s="20"/>
@@ -16160,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="19"/>
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
@@ -16173,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="19"/>
       <c r="F309" s="20"/>
       <c r="G309" s="20"/>
@@ -16186,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="19"/>
       <c r="F310" s="20"/>
       <c r="G310" s="20"/>
@@ -16199,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="19"/>
       <c r="F311" s="20"/>
       <c r="G311" s="20"/>
@@ -16212,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="19"/>
       <c r="F312" s="20"/>
       <c r="G312" s="20"/>
@@ -16225,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="19"/>
       <c r="F313" s="20"/>
       <c r="G313" s="20"/>
@@ -16237,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="19"/>
       <c r="F314" s="20"/>
       <c r="G314" s="20"/>
@@ -16250,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="19"/>
       <c r="F315" s="20"/>
       <c r="G315" s="20"/>
@@ -16263,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="19"/>
       <c r="F316" s="20"/>
       <c r="G316" s="20"/>
@@ -16276,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="19"/>
       <c r="F317" s="20"/>
       <c r="G317" s="20"/>
@@ -16289,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="19"/>
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
@@ -16301,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="19"/>
       <c r="F319" s="20"/>
       <c r="G319" s="20"/>
@@ -16314,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="19"/>
       <c r="F320" s="20"/>
       <c r="G320" s="20"/>
@@ -16326,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="19"/>
       <c r="F321" s="20"/>
       <c r="G321" s="20"/>
@@ -16339,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="19"/>
       <c r="F322" s="20"/>
       <c r="G322" s="20"/>
@@ -16352,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="19"/>
       <c r="F323" s="20"/>
       <c r="G323" s="20"/>
@@ -16365,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="19"/>
       <c r="F324" s="20"/>
       <c r="G324" s="20"/>
@@ -16378,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="19"/>
       <c r="F325" s="20"/>
       <c r="X325" s="10"/>
@@ -16388,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="19"/>
       <c r="F326" s="20"/>
       <c r="G326" s="20"/>
@@ -16401,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="19"/>
       <c r="F327" s="20"/>
       <c r="G327" s="20"/>
@@ -16414,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="19"/>
       <c r="F328" s="20"/>
       <c r="G328" s="20"/>
@@ -16427,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="19"/>
       <c r="F329" s="20"/>
       <c r="G329" s="20"/>
@@ -16440,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="19"/>
       <c r="F330" s="20"/>
       <c r="G330" s="20"/>
@@ -16453,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="19"/>
       <c r="F331" s="20"/>
       <c r="G331" s="20"/>
@@ -16466,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="19"/>
       <c r="F332" s="20"/>
       <c r="G332" s="20"/>
@@ -16478,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="19"/>
       <c r="F333" s="20"/>
       <c r="G333" s="20"/>
@@ -16491,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="19"/>
       <c r="F334" s="20"/>
       <c r="G334" s="20"/>
@@ -16504,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="19"/>
       <c r="F335" s="20"/>
       <c r="G335" s="20"/>
@@ -16517,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="19"/>
       <c r="F336" s="20"/>
       <c r="G336" s="20"/>
@@ -16530,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="19"/>
       <c r="F337" s="20"/>
       <c r="G337" s="20"/>
@@ -16543,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="19"/>
       <c r="F338" s="20"/>
       <c r="G338" s="20"/>
@@ -16556,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="19"/>
       <c r="F339" s="20"/>
       <c r="G339" s="20"/>
@@ -16569,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="19"/>
       <c r="F340" s="20"/>
       <c r="G340" s="20"/>
@@ -16582,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="19"/>
       <c r="F341" s="20"/>
       <c r="G341" s="20"/>
@@ -16595,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="19"/>
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
@@ -16607,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="19"/>
       <c r="F343" s="20"/>
       <c r="G343" s="20"/>
@@ -16620,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="19"/>
       <c r="F344" s="20"/>
       <c r="G344" s="20"/>
@@ -16633,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="19"/>
       <c r="F345" s="20"/>
       <c r="G345" s="20"/>
@@ -16645,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
@@ -16676,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
@@ -16707,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
@@ -16738,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
@@ -16769,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
@@ -16800,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
@@ -16831,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
@@ -16862,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
@@ -16893,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
@@ -16924,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
@@ -16955,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
@@ -16986,7 +16991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
@@ -17017,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
@@ -17048,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
@@ -17079,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
@@ -17110,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
@@ -17141,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
@@ -17172,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
@@ -17203,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
@@ -17234,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
@@ -17265,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
@@ -17296,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
@@ -17327,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
@@ -17358,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
@@ -17389,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
@@ -17420,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
@@ -17451,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
@@ -17482,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
@@ -17513,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="3"/>
@@ -17544,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="9"/>
       <c r="C375" s="10"/>
@@ -17575,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
@@ -17606,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="9"/>
       <c r="C377" s="10"/>
@@ -17637,7 +17642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
@@ -17668,7 +17673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="9"/>
       <c r="C379" s="10"/>
@@ -17699,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
@@ -17730,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="9"/>
       <c r="C381" s="10"/>
@@ -17761,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
@@ -17792,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
@@ -17823,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
@@ -17854,7 +17859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
@@ -17885,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
@@ -17916,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="9"/>
       <c r="C387" s="10"/>
@@ -17947,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
@@ -17978,7 +17983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
       <c r="C389" s="10"/>
@@ -18009,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
@@ -18041,6 +18046,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W242" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
